--- a/data/trans_orig/P34C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9B1F57-107A-440F-B640-52CD7B2AB934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{150D6754-B9AD-4A3A-A3A3-498C2061C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{655517A5-3BF2-47BF-9FA8-6A895C4061C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2963DDE7-C911-4324-BB38-7AFE92188DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="424">
   <si>
     <t>Población según el número de días por semana que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,59%)</t>
   </si>
@@ -71,1213 +71,1240 @@
     <t>27,67%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>17,43%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1692,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD021A59-94A6-41A2-B9A4-5D0B9F205FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B7CB5-C921-4EB7-A969-3B93D55C1D04}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +2017,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -1999,13 +2026,13 @@
         <v>39440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2047,13 @@
         <v>64029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -2035,13 +2062,13 @@
         <v>51492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -2050,13 +2077,13 @@
         <v>115521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,10 +2101,10 @@
         <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -2086,13 +2113,13 @@
         <v>19123</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2101,13 +2128,13 @@
         <v>52611</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2149,13 @@
         <v>1950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2137,13 +2164,13 @@
         <v>320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2152,13 +2179,13 @@
         <v>2270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2200,13 @@
         <v>228805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -2188,13 +2215,13 @@
         <v>171950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -2203,18 +2230,18 @@
         <v>400755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -2226,13 +2253,13 @@
         <v>57796</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>61</v>
@@ -2241,13 +2268,13 @@
         <v>61706</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -2256,13 +2283,13 @@
         <v>119502</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2304,13 @@
         <v>10676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2436,7 +2463,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -2445,10 +2472,10 @@
         <v>42752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>112</v>
@@ -2466,7 +2493,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2508,13 @@
         <v>19080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2496,13 +2523,13 @@
         <v>19159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2511,13 +2538,13 @@
         <v>38239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2559,13 @@
         <v>8266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2547,13 +2574,13 @@
         <v>7857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2562,13 +2589,13 @@
         <v>16123</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2610,13 @@
         <v>222828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>188</v>
@@ -2598,13 +2625,13 @@
         <v>199885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -2613,18 +2640,18 @@
         <v>422713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2636,13 +2663,13 @@
         <v>80201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>152</v>
@@ -2651,13 +2678,13 @@
         <v>94679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>232</v>
@@ -2666,13 +2693,13 @@
         <v>174880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2714,13 @@
         <v>10288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2702,13 +2729,13 @@
         <v>7661</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2717,13 +2744,13 @@
         <v>17949</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2765,13 @@
         <v>49759</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2753,13 +2780,13 @@
         <v>49289</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -2768,13 +2795,13 @@
         <v>99048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,10 +2900,10 @@
         <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2918,13 @@
         <v>33438</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2906,13 +2933,13 @@
         <v>32125</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2921,13 +2948,13 @@
         <v>65563</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2969,13 @@
         <v>10883</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2957,13 +2984,13 @@
         <v>7272</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2972,13 +2999,13 @@
         <v>18154</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3020,13 @@
         <v>275607</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>404</v>
@@ -3008,13 +3035,13 @@
         <v>265154</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>677</v>
@@ -3023,18 +3050,18 @@
         <v>540761</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -3046,13 +3073,13 @@
         <v>109349</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>212</v>
@@ -3061,13 +3088,13 @@
         <v>124386</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>330</v>
@@ -3076,13 +3103,13 @@
         <v>233735</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,10 +3124,10 @@
         <v>9763</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>204</v>
@@ -3166,10 +3193,10 @@
         <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>166</v>
@@ -3178,13 +3205,13 @@
         <v>125734</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3226,13 @@
         <v>20675</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -3214,13 +3241,13 @@
         <v>32744</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>61</v>
@@ -3229,13 +3256,13 @@
         <v>53419</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3277,13 @@
         <v>54447</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -3280,13 +3307,13 @@
         <v>126085</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3328,13 @@
         <v>29049</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>66</v>
@@ -3316,13 +3343,13 @@
         <v>42008</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>91</v>
@@ -3331,13 +3358,13 @@
         <v>71056</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3379,13 @@
         <v>16464</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -3367,13 +3394,13 @@
         <v>8112</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -3382,13 +3409,13 @@
         <v>24577</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3430,13 @@
         <v>309386</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>560</v>
@@ -3418,13 +3445,13 @@
         <v>347058</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>880</v>
@@ -3433,18 +3460,18 @@
         <v>656444</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -3456,13 +3483,13 @@
         <v>100542</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>177</v>
@@ -3471,13 +3498,13 @@
         <v>97813</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>299</v>
@@ -3486,13 +3513,13 @@
         <v>198355</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3534,13 @@
         <v>10185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -3522,13 +3549,13 @@
         <v>7081</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>26</v>
@@ -3537,13 +3564,13 @@
         <v>17267</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3585,13 @@
         <v>52778</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>81</v>
@@ -3573,13 +3600,13 @@
         <v>46566</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>141</v>
@@ -3588,13 +3615,13 @@
         <v>99344</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3636,13 @@
         <v>24502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H39" s="7">
         <v>22</v>
@@ -3624,13 +3651,13 @@
         <v>12907</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="M39" s="7">
         <v>48</v>
@@ -3639,13 +3666,13 @@
         <v>37410</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3687,13 @@
         <v>37524</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H40" s="7">
         <v>74</v>
@@ -3675,13 +3702,13 @@
         <v>43629</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M40" s="7">
         <v>114</v>
@@ -3690,13 +3717,13 @@
         <v>81153</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3738,13 @@
         <v>17696</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -3726,13 +3753,13 @@
         <v>24173</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M41" s="7">
         <v>59</v>
@@ -3741,13 +3768,13 @@
         <v>41869</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3789,13 @@
         <v>6753</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3777,13 +3804,13 @@
         <v>5885</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -3792,13 +3819,13 @@
         <v>12638</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3840,13 @@
         <v>249980</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H43" s="7">
         <v>416</v>
@@ -3828,13 +3855,13 @@
         <v>238054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M43" s="7">
         <v>703</v>
@@ -3843,18 +3870,18 @@
         <v>488034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -3866,13 +3893,13 @@
         <v>134434</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H44" s="7">
         <v>256</v>
@@ -3881,13 +3908,13 @@
         <v>130447</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>453</v>
@@ -3896,13 +3923,13 @@
         <v>264881</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3944,13 @@
         <v>9142</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H45" s="7">
         <v>21</v>
@@ -3932,13 +3959,13 @@
         <v>10531</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M45" s="7">
         <v>34</v>
@@ -3947,13 +3974,13 @@
         <v>19673</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3995,13 @@
         <v>24940</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H46" s="7">
         <v>76</v>
@@ -3983,13 +4010,13 @@
         <v>40363</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -3998,13 +4025,13 @@
         <v>65303</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4046,13 @@
         <v>14061</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -4034,13 +4061,13 @@
         <v>8730</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -4049,13 +4076,13 @@
         <v>22791</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4097,13 @@
         <v>23384</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H48" s="7">
         <v>73</v>
@@ -4085,13 +4112,13 @@
         <v>37961</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M48" s="7">
         <v>107</v>
@@ -4100,13 +4127,13 @@
         <v>61345</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4148,13 @@
         <v>10110</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>309</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H49" s="7">
         <v>49</v>
@@ -4136,13 +4163,13 @@
         <v>28701</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M49" s="7">
         <v>64</v>
@@ -4151,13 +4178,13 @@
         <v>38811</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4199,13 @@
         <v>8525</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="H50" s="7">
         <v>18</v>
@@ -4187,13 +4214,13 @@
         <v>9805</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M50" s="7">
         <v>29</v>
@@ -4202,13 +4229,13 @@
         <v>18330</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>69</v>
+        <v>367</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4250,13 @@
         <v>224595</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H51" s="7">
         <v>511</v>
@@ -4238,13 +4265,13 @@
         <v>266539</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M51" s="7">
         <v>834</v>
@@ -4253,13 +4280,13 @@
         <v>491134</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4303,13 @@
         <v>545632</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>47</v>
+        <v>370</v>
       </c>
       <c r="H52" s="7">
         <v>884</v>
@@ -4291,13 +4318,13 @@
         <v>553872</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M52" s="7">
         <v>1467</v>
@@ -4306,13 +4333,13 @@
         <v>1099505</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,10 +4357,10 @@
         <v>84</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H53" s="7">
         <v>81</v>
@@ -4342,13 +4369,13 @@
         <v>53040</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="M53" s="7">
         <v>149</v>
@@ -4357,13 +4384,13 @@
         <v>117349</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4405,13 @@
         <v>304845</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H54" s="7">
         <v>384</v>
@@ -4393,13 +4420,13 @@
         <v>257319</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M54" s="7">
         <v>679</v>
@@ -4408,13 +4435,13 @@
         <v>562164</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4456,13 @@
         <v>116314</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>385</v>
+        <v>55</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H55" s="7">
         <v>138</v>
@@ -4444,13 +4471,13 @@
         <v>115493</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M55" s="7">
         <v>246</v>
@@ -4459,13 +4486,13 @@
         <v>231807</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4507,13 @@
         <v>284398</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H56" s="7">
         <v>407</v>
@@ -4495,13 +4522,13 @@
         <v>304377</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M56" s="7">
         <v>653</v>
@@ -4510,13 +4537,13 @@
         <v>588775</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>216</v>
+        <v>404</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4558,13 @@
         <v>142860</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H57" s="7">
         <v>227</v>
@@ -4546,13 +4573,13 @@
         <v>165289</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M57" s="7">
         <v>337</v>
@@ -4561,13 +4588,13 @@
         <v>308149</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4609,13 @@
         <v>52842</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="H58" s="7">
         <v>56</v>
@@ -4597,13 +4624,13 @@
         <v>39250</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M58" s="7">
         <v>105</v>
@@ -4612,13 +4639,13 @@
         <v>92092</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4660,13 @@
         <v>1511200</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H59" s="7">
         <v>2177</v>
@@ -4648,13 +4675,13 @@
         <v>1488640</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M59" s="7">
         <v>3636</v>
@@ -4663,18 +4690,18 @@
         <v>2999840</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{150D6754-B9AD-4A3A-A3A3-498C2061C0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BFC6A1-6D47-4959-8CC6-2ED90CABECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2963DDE7-C911-4324-BB38-7AFE92188DF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBCD62BF-7476-419E-B8AB-7D4DC193572A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B7CB5-C921-4EB7-A969-3B93D55C1D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57E2115-D205-49EE-B58C-81E452525F5D}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
